--- a/Solar Project 2024.xlsx
+++ b/Solar Project 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://geosyntec-my.sharepoint.com/personal/despinoza_geosyntec_com/Documents/Documents/Papers/DNPV/J-DNPVPy/DNPV-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="11_75F85E6D98FA04B0C14EA3108744C75CFDF49E8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0DE83C2-2CD2-DE4C-873D-1239EFA0A69F}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="11_75F85E6D98FA04B0C14EA3108744C75CFDF49E8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F96DF4F-98F1-414F-9C10-959422EB05F6}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="3100" windowWidth="28440" windowHeight="12580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="3100" windowWidth="28440" windowHeight="12580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DNPV Graph" sheetId="1" r:id="rId1"/>
@@ -117,30 +117,8 @@
 </comments>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="212">
   <si>
     <t>npv</t>
   </si>
@@ -295,12 +273,6 @@
     <t>NPV</t>
   </si>
   <si>
-    <t>(10% discount)</t>
-  </si>
-  <si>
-    <t>(13% discount)</t>
-  </si>
-  <si>
     <t>IRR</t>
   </si>
   <si>
@@ -757,19 +729,31 @@
     <t>The total area above the CG is:</t>
   </si>
   <si>
-    <t>Decoupled Cash Flows =Free Cash - Sum Risk*(1-tax)] (**)</t>
-  </si>
-  <si>
     <t>(**) Sine risk is trared as costs, when taxes are included, since FCF already includes taxes, only the cost of risk need to be abbounted for</t>
   </si>
   <si>
-    <t xml:space="preserve">    Political Risk(*)</t>
-  </si>
-  <si>
     <t xml:space="preserve">(*) Includes tariff reductions, tax increaes. This calculation differs from the paper.  The formula was incorrectly implenented in the paper. It assumed that the political risk applied to the free cash flows instead of simply the revenues.  </t>
   </si>
   <si>
-    <t xml:space="preserve">    Solar underperformance</t>
+    <t xml:space="preserve">    Solar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Political</t>
+  </si>
+  <si>
+    <t>(*)</t>
+  </si>
+  <si>
+    <t>Decoupled Cash Flows =Free Cash - Sum Risk*(1-tax)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (**)</t>
+  </si>
+  <si>
+    <t>(8% discount, Germany)</t>
+  </si>
+  <si>
+    <t>(10% discount, France)</t>
   </si>
 </sst>
 </file>
@@ -1319,7 +1303,7 @@
     <xf numFmtId="166" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1643,6 +1627,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="22" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -6038,7 +6023,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="C3:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -6126,11 +6111,11 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:F15" si="0">E4-$D$11</f>
+        <f>E4-$D$11</f>
         <v>-0.30000000000000071</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E13:F15" si="0">F4-$D$11</f>
         <v>-1.1999999999999993</v>
       </c>
     </row>
@@ -6139,7 +6124,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f>E5-$D$11</f>
         <v>-0.30000000000000071</v>
       </c>
       <c r="F14">
@@ -6152,7 +6137,7 @@
         <v>4</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f>E6-$D$11</f>
         <v>2</v>
       </c>
       <c r="F15">
@@ -6185,10 +6170,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B1:Y52"/>
+  <dimension ref="A1:Y52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A36" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
@@ -7610,7 +7595,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B33" s="10" t="s">
         <v>40</v>
       </c>
@@ -7695,7 +7680,7 @@
         <v>16889.154065850216</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B34" s="10" t="s">
         <v>41</v>
       </c>
@@ -7784,7 +7769,7 @@
         <v>4420000.0000000009</v>
       </c>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B35" s="10" t="s">
         <v>42</v>
       </c>
@@ -7873,7 +7858,7 @@
         <v>608881.95556981361</v>
       </c>
     </row>
-    <row r="36" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="28" t="s">
         <v>43</v>
       </c>
@@ -7886,7 +7871,7 @@
         <v>1465759.2853404689</v>
       </c>
       <c r="F36" s="24">
-        <f t="shared" ref="E36:X36" si="5">F31-F35</f>
+        <f t="shared" ref="F36:X36" si="5">F31-F35</f>
         <v>1487023.9317277574</v>
       </c>
       <c r="G36" s="24">
@@ -7963,7 +7948,7 @@
       </c>
       <c r="Y36" s="21"/>
     </row>
-    <row r="37" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="68" t="s">
         <v>44</v>
       </c>
@@ -7991,9 +7976,9 @@
       <c r="X37" s="89"/>
       <c r="Y37" s="21"/>
     </row>
-    <row r="38" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="69" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C38" s="68"/>
       <c r="D38" s="90"/>
@@ -8079,9 +8064,12 @@
       </c>
       <c r="Y38" s="21"/>
     </row>
-    <row r="39" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>207</v>
+      </c>
       <c r="B39" s="69" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C39" s="68"/>
       <c r="D39" s="88"/>
@@ -8167,7 +8155,7 @@
       </c>
       <c r="Y39" s="21"/>
     </row>
-    <row r="40" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="69" t="s">
         <v>45</v>
       </c>
@@ -8255,7 +8243,7 @@
       </c>
       <c r="Y40" s="21"/>
     </row>
-    <row r="41" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="69" t="s">
         <v>46</v>
       </c>
@@ -8343,9 +8331,9 @@
       </c>
       <c r="Y41" s="21"/>
     </row>
-    <row r="42" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="177" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C42" s="68"/>
       <c r="D42" s="88"/>
@@ -8431,9 +8419,12 @@
       </c>
       <c r="Y42" s="21"/>
     </row>
-    <row r="43" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>209</v>
+      </c>
       <c r="B43" s="68" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C43" s="68"/>
       <c r="D43" s="178">
@@ -8521,7 +8512,7 @@
       </c>
       <c r="Y43" s="21"/>
     </row>
-    <row r="44" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="68" t="s">
         <v>47</v>
       </c>
@@ -8554,7 +8545,7 @@
       <c r="X44" s="89"/>
       <c r="Y44" s="21"/>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D46" s="28" t="s">
         <v>49</v>
       </c>
@@ -8564,7 +8555,7 @@
       </c>
       <c r="H46" s="167"/>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D47" s="28" t="s">
         <v>50</v>
       </c>
@@ -8573,22 +8564,22 @@
         <v>13758809.662502479</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D48" s="176"/>
       <c r="E48" s="24">
-        <f>NPV(13%,E36:X36)</f>
-        <v>11231389.770768551</v>
+        <f>NPV(8%,E36:X36)</f>
+        <v>15992973.149212042</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>52</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.2">
       <c r="D49" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E49" s="172">
         <f>IRR(D36:X36)</f>
@@ -8621,12 +8612,12 @@
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B51" s="10" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B52" s="10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E52" s="171"/>
       <c r="X52" s="22"/>
@@ -8655,19 +8646,19 @@
   <sheetData>
     <row r="1" spans="1:25" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
       <c r="B3" s="15"/>
       <c r="D3" s="39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E3" s="13">
         <f>'Financial model'!E7</f>
@@ -8676,14 +8667,14 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" s="35">
         <f>'Financial model'!D9</f>
         <v>20</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E4" s="13">
         <f>E3*B6</f>
@@ -8692,7 +8683,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B5" s="17">
         <f>'Financial model'!D8</f>
@@ -8709,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E6" s="45">
         <f>PMT(B5,B4,E3,-E4,0)</f>
@@ -8722,7 +8713,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>27</v>
@@ -8790,7 +8781,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="4"/>
@@ -8798,7 +8789,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C11" s="13">
         <f t="shared" ref="C11:V11" si="0">-$E$6*IF($B$4&gt;=C$8,1,0)</f>
@@ -8883,7 +8874,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C12" s="13">
         <f t="shared" ref="C12:V12" si="1">C14*$B$5</f>
@@ -8991,7 +8982,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="13">
@@ -9080,7 +9071,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="13">
@@ -9169,7 +9160,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12">
@@ -9258,7 +9249,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B17" s="13">
         <f>E3</f>
@@ -9350,7 +9341,7 @@
     </row>
     <row r="19" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C19" s="20" t="b">
         <f t="shared" ref="C19:V19" si="6">C15+C12=C11</f>
@@ -9446,8 +9437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A4" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9458,23 +9449,66 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B3" t="str" cm="1">
-        <f t="array" ref="B3:B5">'Financial model'!B38:B40</f>
-        <v xml:space="preserve">    Solar underperformance</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B4" t="str">
-        <v xml:space="preserve">    Political Risk(*)</v>
+      <c r="B4" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="179">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="179">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="179">
+        <v>0.08</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B5" t="str">
+      <c r="B5" s="37" t="str">
+        <f>'Financial model'!B38</f>
+        <v xml:space="preserve">    Solar</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B6" s="37" t="str">
+        <f>'Financial model'!B40</f>
         <v xml:space="preserve">    Maintenance</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B7" s="37" t="str">
+        <f>'Financial model'!B39</f>
+        <v xml:space="preserve">    Political</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
@@ -9859,29 +9893,29 @@
       <c r="A3" s="85"/>
       <c r="B3" s="98"/>
       <c r="C3" s="99" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D3" s="99"/>
       <c r="E3" s="99" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F3" s="99"/>
       <c r="G3" s="99" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H3" s="121"/>
       <c r="I3" s="99" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J3" s="121"/>
       <c r="K3" s="99" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="85"/>
       <c r="B4" s="125" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" s="96"/>
       <c r="D4" s="96"/>
@@ -9898,21 +9932,21 @@
         <v>1</v>
       </c>
       <c r="B5" s="94" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C5" s="95" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D5" s="95"/>
       <c r="E5" s="95" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F5" s="95"/>
       <c r="G5" s="95" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I5" s="95" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J5" s="95"/>
       <c r="K5" s="128">
@@ -9924,21 +9958,21 @@
         <v>2</v>
       </c>
       <c r="B6" s="94" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C6" s="95" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D6" s="95"/>
       <c r="E6" s="95" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F6" s="95"/>
       <c r="G6" s="95" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6" s="95" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J6" s="95"/>
       <c r="K6" s="128">
@@ -9951,21 +9985,21 @@
         <v>3</v>
       </c>
       <c r="B7" s="94" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C7" s="95" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D7" s="95"/>
       <c r="E7" s="95" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F7" s="95"/>
       <c r="G7" s="95" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I7" s="95" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J7" s="95"/>
       <c r="K7" s="128">
@@ -9988,7 +10022,7 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="122"/>
       <c r="B9" s="124" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C9" s="95"/>
       <c r="D9" s="95"/>
@@ -10007,18 +10041,18 @@
         <v>32</v>
       </c>
       <c r="C10" s="95" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D10" s="95"/>
       <c r="E10" s="95" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F10" s="95"/>
       <c r="G10" s="95" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I10" s="95" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J10" s="95"/>
       <c r="K10" s="128">
@@ -10034,18 +10068,18 @@
         <v>33</v>
       </c>
       <c r="C11" s="95" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D11" s="95"/>
       <c r="E11" s="95" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F11" s="95"/>
       <c r="G11" s="95" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I11" s="95" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J11" s="95"/>
       <c r="K11" s="128">
@@ -10060,18 +10094,18 @@
         <v>34</v>
       </c>
       <c r="C12" s="95" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D12" s="95"/>
       <c r="E12" s="95" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F12" s="95"/>
       <c r="G12" s="95" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12" s="95" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J12" s="95"/>
       <c r="K12" s="128">
@@ -10089,11 +10123,11 @@
       <c r="C13" s="95"/>
       <c r="D13" s="95"/>
       <c r="E13" s="95" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F13" s="95"/>
       <c r="G13" s="95" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I13" s="95"/>
       <c r="J13" s="95"/>
@@ -10109,13 +10143,13 @@
         <v>36</v>
       </c>
       <c r="C14" s="95" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D14" s="95"/>
       <c r="E14" s="95"/>
       <c r="F14" s="95"/>
       <c r="G14" s="95" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I14" s="95"/>
       <c r="J14" s="95"/>
@@ -10131,14 +10165,14 @@
         <v>37</v>
       </c>
       <c r="C15" s="95" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D15" s="95"/>
       <c r="E15" s="95"/>
       <c r="F15" s="95"/>
       <c r="G15" s="95"/>
       <c r="I15" s="95" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J15" s="95"/>
       <c r="K15" s="128">
@@ -10160,7 +10194,7 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="94"/>
       <c r="B17" s="124" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C17" s="95"/>
       <c r="D17" s="95"/>
@@ -10176,7 +10210,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="94" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C18" s="95"/>
       <c r="D18" s="95"/>
@@ -10184,7 +10218,7 @@
       <c r="F18" s="95"/>
       <c r="G18" s="95"/>
       <c r="I18" s="95" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J18" s="95"/>
       <c r="K18" s="128">
@@ -10199,16 +10233,16 @@
         <v>42</v>
       </c>
       <c r="C19" s="95" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D19" s="95"/>
       <c r="E19" s="95"/>
       <c r="F19" s="95"/>
       <c r="G19" s="95" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I19" s="95" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J19" s="95"/>
       <c r="K19" s="128">
@@ -10236,7 +10270,7 @@
       <c r="F21" s="95"/>
       <c r="G21" s="95"/>
       <c r="I21" s="127" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J21" s="95"/>
       <c r="K21" s="129">
@@ -11313,17 +11347,17 @@
         <v>2</v>
       </c>
       <c r="B1" s="98" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="103" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D3" s="84">
         <v>1.07</v>
@@ -11333,7 +11367,7 @@
     </row>
     <row r="4" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="81" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D4" s="81">
         <v>1164</v>
@@ -11345,7 +11379,7 @@
     </row>
     <row r="5" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="81" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D5" s="82">
         <f>D4/D3</f>
@@ -11357,7 +11391,7 @@
     </row>
     <row r="6" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="81" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D6" s="82">
         <f>D4-D12</f>
@@ -11369,7 +11403,7 @@
     </row>
     <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="83" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D7" s="80">
         <f>NORMSINV(0.1)</f>
@@ -11381,7 +11415,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="83" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D8" s="79">
         <f>(D4-D5)/-D7</f>
@@ -11391,7 +11425,7 @@
     </row>
     <row r="9" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="37" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D9" s="136">
         <f>D8/D4</f>
@@ -11400,7 +11434,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D10" s="136">
         <f>'CG of Radiation Loss'!E10</f>
@@ -11411,7 +11445,7 @@
     </row>
     <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="83" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D11">
         <f>NORMSINV(0.21)</f>
@@ -11421,26 +11455,26 @@
     </row>
     <row r="12" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="81" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D12" s="82">
         <f>-D11*D8</f>
         <v>47.917386064746331</v>
       </c>
       <c r="E12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D13" s="139">
         <f>(D12/D4)/2</f>
         <v>2.0583069615440864E-2</v>
       </c>
       <c r="E13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -11452,23 +11486,23 @@
         <v>41245.320676807853</v>
       </c>
       <c r="E14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="103" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="102" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11476,23 +11510,23 @@
     </row>
     <row r="21" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="105" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C21" s="106"/>
       <c r="E21" s="119" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F21" s="118"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" s="107" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="108" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="50" t="s">
         <v>130</v>
-      </c>
-      <c r="C22" s="108" t="s">
-        <v>131</v>
-      </c>
-      <c r="E22" s="50" t="s">
-        <v>132</v>
       </c>
       <c r="F22" s="140">
         <f>C26*NORMSDIST(F23)-C27*EXP(-C28*C24)*NORMSDIST(F24)</f>
@@ -11501,13 +11535,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="107" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C23" s="108">
         <v>20</v>
       </c>
       <c r="E23" s="50" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F23" s="49">
         <f>(LN(C26/C27)+(C28+C29^2/2)*(C24))/(C29*SQRT(C24))</f>
@@ -11516,13 +11550,13 @@
     </row>
     <row r="24" spans="1:6" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="107" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C24" s="135">
         <v>1</v>
       </c>
       <c r="E24" s="109" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F24" s="111">
         <f>F23-C29*SQRT(C24)</f>
@@ -11531,7 +11565,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" s="107" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C25" s="110">
         <f>C24/C23</f>
@@ -11541,13 +11575,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" s="107" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C26" s="137">
         <v>1</v>
       </c>
       <c r="E26" s="145" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F26" s="141">
         <f>F22-D13</f>
@@ -11556,14 +11590,14 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" s="107" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C27" s="138">
         <f>1*EXP(C28)</f>
         <v>1.0279844084083427</v>
       </c>
       <c r="E27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F27" s="143">
         <f>-C26*NORMSDIST(-F23)+C27*EXP(-C28*C24)*NORMSDIST(-F24)</f>
@@ -11572,7 +11606,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" s="107" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C28" s="108">
         <v>2.76E-2</v>
@@ -11580,7 +11614,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" s="112" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C29" s="142">
         <f>D9</f>
@@ -11589,13 +11623,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" s="113" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C31" s="114"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" s="115" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C32" s="110">
         <f>EXP(C29*SQRT(C25))</f>
@@ -11604,7 +11638,7 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B33" s="115" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C33" s="110">
         <f>EXP(-C29*SQRT(C25))</f>
@@ -11613,7 +11647,7 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B34" s="115" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C34" s="110">
         <f>(C35-C33)/(C32-C33)</f>
@@ -11622,7 +11656,7 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B35" s="116" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C35" s="117">
         <f>EXP(C28*C25)</f>
@@ -11634,104 +11668,104 @@
         <v>3</v>
       </c>
       <c r="B38" s="98" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
+        <v>148</v>
+      </c>
+      <c r="N39" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="T39" s="146" t="s">
         <v>150</v>
-      </c>
-      <c r="N39" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="T39" s="146" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D40" s="37" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E40" s="80">
         <f>'Financial model'!E21</f>
         <v>0.43361286372646007</v>
       </c>
       <c r="L40" s="146" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D41" s="37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E41" s="80">
         <v>0.28000000000000003</v>
       </c>
       <c r="F41" s="101" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L41" s="146"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D42" s="37" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E42" s="80">
         <v>0.06</v>
       </c>
       <c r="F42" s="101" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D43" s="86" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E43" s="133">
         <v>0.12</v>
       </c>
       <c r="F43" s="101" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D44" s="86" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E44" s="133">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F44" s="101" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M44" s="164"/>
     </row>
     <row r="45" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K45" s="164" t="s">
+        <v>161</v>
+      </c>
+      <c r="L45" s="164" t="s">
+        <v>162</v>
+      </c>
+      <c r="M45" s="164" t="s">
         <v>163</v>
       </c>
-      <c r="L45" s="164" t="s">
+      <c r="N45" s="81" t="s">
         <v>164</v>
       </c>
-      <c r="M45" s="164" t="s">
+      <c r="O45" s="81" t="s">
         <v>165</v>
       </c>
-      <c r="N45" s="81" t="s">
+      <c r="P45" s="164" t="s">
         <v>166</v>
       </c>
-      <c r="O45" s="81" t="s">
+      <c r="Q45" s="81" t="s">
         <v>167</v>
-      </c>
-      <c r="P45" s="164" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q45" s="81" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D46" s="37" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E46" s="169">
         <f>P49</f>
@@ -11768,7 +11802,7 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D47" s="37" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E47" s="169">
         <f>P50</f>
@@ -11805,7 +11839,7 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D48" s="37" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E48" s="139">
         <f>E46/E40</f>
@@ -11842,14 +11876,14 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D49" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E49" s="136">
         <f>E47/E40</f>
         <v>0.15206294348417401</v>
       </c>
       <c r="L49" s="126" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M49" s="92">
         <f>SUM(M46:M48)</f>
@@ -11860,7 +11894,7 @@
         <v>4.3476152263989022E-3</v>
       </c>
       <c r="O49" s="126" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="P49" s="92">
         <f>SUM(P46:P48)</f>
@@ -11873,21 +11907,21 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D50" s="37" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E50" s="93">
         <f>E49/E48</f>
         <v>2.743038975742027</v>
       </c>
       <c r="L50" s="165" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M50" s="92">
         <f>SQRT(N49)</f>
         <v>6.5936448390847543E-2</v>
       </c>
       <c r="O50" s="165" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P50" s="92">
         <f>SQRT(Q49)</f>
@@ -11903,17 +11937,17 @@
         <v>5.5435939783917594E-2</v>
       </c>
       <c r="F51" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L51" s="126" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M51" s="166">
         <f>M50/M49</f>
         <v>0.1609874331333202</v>
       </c>
       <c r="O51" s="126" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P51" s="166">
         <f>P50/P49</f>
@@ -11925,12 +11959,12 @@
         <v>4</v>
       </c>
       <c r="B52" s="98" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D53" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
@@ -11939,54 +11973,54 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D55" s="37" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E55" s="100">
         <v>0.25</v>
       </c>
       <c r="F55" s="101" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D56" s="37" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E56" s="100">
         <v>0.2</v>
       </c>
       <c r="F56" s="101" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D57" s="37" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E57" s="87">
         <f>E55*E56</f>
         <v>0.05</v>
       </c>
       <c r="K57" s="164" t="s">
+        <v>182</v>
+      </c>
+      <c r="L57" s="164" t="s">
+        <v>162</v>
+      </c>
+      <c r="M57" s="164" t="s">
+        <v>183</v>
+      </c>
+      <c r="N57" s="81" t="s">
         <v>184</v>
       </c>
-      <c r="L57" s="164" t="s">
-        <v>164</v>
-      </c>
-      <c r="M57" s="164" t="s">
-        <v>185</v>
-      </c>
-      <c r="N57" s="81" t="s">
-        <v>186</v>
-      </c>
       <c r="O57" s="81" t="s">
+        <v>165</v>
+      </c>
+      <c r="P57" s="164" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q57" s="81" t="s">
         <v>167</v>
-      </c>
-      <c r="P57" s="164" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q57" s="81" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
@@ -12056,7 +12090,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="L60" s="126" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M60">
         <f>SUM(M58:M59)</f>
@@ -12077,7 +12111,7 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="L61" s="165" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M61" s="162">
         <f>N60^0.5</f>
@@ -12090,7 +12124,7 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="L62" s="126" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M62" s="163">
         <f>M61/M60</f>
@@ -12106,28 +12140,28 @@
         <v>6</v>
       </c>
       <c r="B63" s="98" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="103" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D65" s="84">
         <v>1.07</v>
       </c>
       <c r="E65" s="81" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="3:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="81" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D66" s="81">
         <v>4000</v>
@@ -12140,7 +12174,7 @@
     </row>
     <row r="67" spans="3:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="81" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D67" s="82">
         <f>D66*D65</f>
@@ -12154,7 +12188,7 @@
     </row>
     <row r="68" spans="3:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" s="81" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D68" s="82">
         <f>D66-D72</f>
@@ -12167,7 +12201,7 @@
     </row>
     <row r="69" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="83" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D69" s="80">
         <f>NORMSINV(0.1)</f>
@@ -12176,7 +12210,7 @@
     </row>
     <row r="70" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C70" s="83" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D70" s="79">
         <f>(D66-D67)/D69</f>
@@ -12185,7 +12219,7 @@
     </row>
     <row r="71" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D71" s="93">
         <f>D10</f>
@@ -12194,7 +12228,7 @@
     </row>
     <row r="72" spans="3:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="81" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D72" s="82">
         <f>D71*D70</f>
@@ -12203,7 +12237,7 @@
     </row>
     <row r="73" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C73" s="37" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D73" s="87">
         <f>(D72/D66)/2</f>
@@ -12240,7 +12274,7 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1" s="85" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -12271,7 +12305,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="103" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -12286,20 +12320,20 @@
       <c r="D3" s="80"/>
       <c r="F3" s="144"/>
       <c r="I3" s="81" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J3" s="81" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K3" s="81" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C4" s="81"/>
       <c r="D4" s="80"/>
       <c r="I4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J4" s="92">
         <f>SUM(J6:J221)</f>
@@ -12321,7 +12355,7 @@
       <c r="C5" s="81"/>
       <c r="D5" s="80"/>
       <c r="F5" s="37" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G5">
         <v>-2.5000000000000001E-2</v>
@@ -12334,10 +12368,10 @@
         <v>0.3989422804014327</v>
       </c>
       <c r="J5" s="81" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K5" s="81" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M5" s="134">
         <f>M4</f>
@@ -12350,12 +12384,12 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C6" s="83"/>
       <c r="E6" s="148"/>
       <c r="F6" s="37" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -12387,7 +12421,7 @@
         <v>-0.79796730796999016</v>
       </c>
       <c r="F7" s="149" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -12415,7 +12449,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C8" s="37"/>
       <c r="H8">
@@ -12441,14 +12475,14 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C9" s="162">
         <f>SUM(L6:L220)^0.5</f>
         <v>2.6724305596598001</v>
       </c>
       <c r="D9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
@@ -12473,7 +12507,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C10" s="81"/>
       <c r="E10" s="162">
